--- a/OPM经济数值/活动副本.xlsx
+++ b/OPM经济数值/活动副本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D91C60A-3FE3-42AF-AB1D-280C61E7BA31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BCDC52-64FF-44D2-BBAE-B46546093EB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
   <si>
     <t>类型</t>
     <rPh sb="0" eb="1">
@@ -247,14 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本价值计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,35 +259,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每次次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外价值/次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两周次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分每次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星额外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三星总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12天积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,10 +352,6 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -714,6 +674,57 @@
     <t>地狱的吹雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>随机5星饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,105</t>
+  </si>
+  <si>
+    <t>目标价值/次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总积分价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价值放大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换完之前的放大倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价值缩小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换完之后的缩小至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金虚价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -722,7 +733,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -827,6 +838,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -857,7 +876,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -906,6 +925,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5465,7 +5493,7 @@
   <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5493,13 +5521,13 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -5524,64 +5552,64 @@
       </c>
       <c r="K1" s="1"/>
       <c r="M1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>0.75</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:F6" si="0">CEILING(VLOOKUP(D$1,$A$30:$B$32,2,0)*$B2*$B$18/VLOOKUP($C2,$A$26:$B$27,2,0),5)</f>
-        <v>30</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="25">
+        <f>CEILING(VLOOKUP(D$1,$A$27:$B$29,2,0)*$B2*$B$15/VLOOKUP($C2,$A$23:$B$24,2,0),1)</f>
+        <v>34</v>
+      </c>
+      <c r="E2" s="25">
+        <f t="shared" ref="E2:F6" si="0">CEILING(VLOOKUP(E$1,$A$27:$B$29,2,0)*$B2*$B$15/VLOOKUP($C2,$A$23:$B$24,2,0),1)</f>
+        <v>57</v>
+      </c>
+      <c r="F2" s="25">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="4" t="str">
         <f t="shared" ref="H2:J6" si="1">$G2&amp;","&amp;D2</f>
-        <v>prop,806,30</v>
+        <v>prop,806,34</v>
       </c>
       <c r="I2" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,50</v>
+        <v>prop,806,57</v>
       </c>
       <c r="J2" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,70</v>
+        <v>prop,806,67</v>
       </c>
       <c r="K2" s="1"/>
       <c r="M2" s="4">
         <v>1001</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="O2" s="4">
         <v>1</v>
@@ -5595,7 +5623,7 @@
         <v>prop,702,1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="V2" s="4">
         <v>25</v>
@@ -5606,24 +5634,24 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>0.5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="25">
+        <f t="shared" ref="D3:D6" si="2">CEILING(VLOOKUP(D$1,$A$27:$B$29,2,0)*$B3*$B$15/VLOOKUP($C3,$A$23:$B$24,2,0),1)</f>
+        <v>23</v>
+      </c>
+      <c r="E3" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F3" s="1">
+        <v>38</v>
+      </c>
+      <c r="F3" s="25">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -5632,11 +5660,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,20</v>
+        <v>prop,806,23</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,35</v>
+        <v>prop,806,38</v>
       </c>
       <c r="J3" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5647,7 +5675,7 @@
         <v>1002</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O3" s="4">
         <v>1</v>
@@ -5661,59 +5689,59 @@
         <v>prop,106,1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="V3" s="4">
         <v>46</v>
       </c>
       <c r="W3" s="4" t="str">
-        <f t="shared" ref="W3:W6" si="2">V3&amp;",1,0,0"</f>
+        <f t="shared" ref="W3:W6" si="3">V3&amp;",1,0,0"</f>
         <v>46,1,0,0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="25">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E4" s="25">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E4" s="1">
+        <v>76</v>
+      </c>
+      <c r="F4" s="25">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,40</v>
+        <v>prop,806,45</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,65</v>
+        <v>prop,806,76</v>
       </c>
       <c r="J4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,90</v>
+        <v>prop,806,89</v>
       </c>
       <c r="K4" s="1"/>
       <c r="M4" s="4">
         <v>1003</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O4" s="4">
         <v>2</v>
@@ -5727,59 +5755,59 @@
         <v>prop,403,2</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V4" s="4">
         <v>13</v>
       </c>
       <c r="W4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>13,1,0,0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25">
         <f t="shared" si="2"/>
-        <v>13,1,0,0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E5" s="1">
+        <v>32</v>
+      </c>
+      <c r="F5" s="25">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,15</v>
+        <v>prop,807,19</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,30</v>
+        <v>prop,807,32</v>
       </c>
       <c r="J5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,40</v>
+        <v>prop,807,37</v>
       </c>
       <c r="K5" s="1"/>
       <c r="M5" s="4">
         <v>1004</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O5" s="4">
         <v>2</v>
@@ -5793,59 +5821,59 @@
         <v>prop,317,2</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="V5" s="4">
         <v>8</v>
       </c>
       <c r="W5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>8,1,0,0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="25">
         <f t="shared" si="2"/>
-        <v>8,1,0,0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
+        <v>37</v>
+      </c>
+      <c r="E6" s="25">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E6" s="1">
+        <v>63</v>
+      </c>
+      <c r="F6" s="25">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,30</v>
+        <v>prop,807,37</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,55</v>
+        <v>prop,807,63</v>
       </c>
       <c r="J6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,75</v>
+        <v>prop,807,74</v>
       </c>
       <c r="K6" s="1"/>
       <c r="M6" s="4">
         <v>1005</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O6" s="4">
         <v>2</v>
@@ -5859,13 +5887,13 @@
         <v>prop,314,2</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="V6" s="4">
         <v>51</v>
       </c>
       <c r="W6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51,1,0,0</v>
       </c>
     </row>
@@ -5875,7 +5903,7 @@
         <v>1011</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="O7" s="4">
         <v>1</v>
@@ -5894,11 +5922,11 @@
         <v>23</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" ref="M8:M16" si="3">M3+10</f>
+        <f t="shared" ref="M8:M16" si="4">M3+10</f>
         <v>1012</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O8" s="4">
         <v>2</v>
@@ -5914,11 +5942,11 @@
     </row>
     <row r="9" spans="1:23">
       <c r="M9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1013</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O9" s="4">
         <v>3</v>
@@ -5933,21 +5961,18 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1014</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="O10" s="4">
         <v>1</v>
@@ -5962,27 +5987,22 @@
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>120</v>
+      </c>
+      <c r="C11" s="4">
+        <v>60</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>120</v>
-      </c>
-      <c r="G11" s="1">
-        <v>60</v>
-      </c>
       <c r="M11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1015</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O11" s="4">
         <v>1</v>
@@ -5997,31 +6017,24 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="4">
-        <v>12</v>
+      <c r="A12" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B12" s="4">
-        <v>240</v>
-      </c>
-      <c r="C12" s="4"/>
+        <f>B11/12</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C11/12</f>
+        <v>5</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <f>F11/20</f>
-        <v>6</v>
-      </c>
-      <c r="G12" s="1">
-        <f>G11/20</f>
-        <v>3</v>
-      </c>
       <c r="M12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1021</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="O12" s="4">
         <v>1</v>
@@ -6036,28 +6049,21 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="4">
-        <v>20</v>
+      <c r="A13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="4">
-        <f>B12/A12*A13</f>
-        <v>400</v>
+        <f>B12+C12</f>
+        <v>15</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1">
-        <f>F12+G12</f>
-        <v>9</v>
-      </c>
       <c r="M13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1022</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O13" s="4">
         <v>2</v>
@@ -6072,12 +6078,14 @@
       </c>
     </row>
     <row r="14" spans="1:23">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="M14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1023</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O14" s="4">
         <v>3</v>
@@ -6093,18 +6101,19 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1">
-        <f>B13-(B12-50)</f>
-        <v>210</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B15" s="26">
+        <f>商店兑换!O24/副本产出!B16/副本产出!B17</f>
+        <v>177.44444444444446</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="M15" s="4">
         <f>M10+10</f>
         <v>1024</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="O15" s="4">
         <v>1</v>
@@ -6120,18 +6129,19 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1">
-        <f>F13</f>
-        <v>9</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B13</f>
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="M16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1025</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O16" s="4">
         <v>1</v>
@@ -6147,90 +6157,89 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1">
-        <f>B16*14</f>
-        <v>126</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B17" s="4">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1">
-        <v>180</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="A18" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="26">
+        <f>B15*B16*B17</f>
+        <v>31940.000000000004</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="O18" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="26">
         <f>SUM(P2:P16)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1">
-        <f>B15-B18</f>
-        <v>30</v>
-      </c>
+      <c r="A19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="26">
+        <f>P18</f>
+        <v>4250</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="S19" s="20">
         <f>SUM(S50:S53)</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="T19" s="20">
-        <f t="shared" ref="T19:AD19" si="4">SUM(T50:T53)</f>
+        <f t="shared" ref="T19:AD19" si="5">SUM(T50:T53)</f>
         <v>0.54545454545454541</v>
       </c>
       <c r="U19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="V19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="W19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54761904761904756</v>
       </c>
       <c r="Y19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="Z19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50828729281767959</v>
       </c>
       <c r="AA19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5056179775280899</v>
       </c>
       <c r="AB19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4285714285714286</v>
       </c>
       <c r="AC19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="AD19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1">
-        <f>B18*B17</f>
-        <v>22680</v>
-      </c>
       <c r="S20" s="4">
         <v>10</v>
       </c>
@@ -6245,72 +6254,64 @@
       </c>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1">
-        <f>B19*B17</f>
-        <v>3780</v>
-      </c>
       <c r="O21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y21" s="4" t="s">
+      <c r="AB21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Z21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AC21" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1">
-        <f>B18*12*B16</f>
-        <v>19440</v>
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O22" s="4">
         <f>VLOOKUP(N22,价值设定!$B:$G,6,0)</f>
@@ -6365,8 +6366,15 @@
       </c>
     </row>
     <row r="23" spans="1:30">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="N23" s="19" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O23" s="4">
         <f>VLOOKUP(N23,价值设定!$B:$G,6,0)</f>
@@ -6376,7 +6384,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" ref="Q23:Q34" si="5">P23*O23</f>
+        <f t="shared" ref="Q23:Q34" si="6">P23*O23</f>
         <v>20</v>
       </c>
       <c r="R23" s="19" t="str">
@@ -6421,8 +6429,15 @@
       </c>
     </row>
     <row r="24" spans="1:30">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="N24" s="19" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O24" s="4">
         <f>VLOOKUP(N24,价值设定!$B:$G,6,0)</f>
@@ -6432,7 +6447,7 @@
         <v>50</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="R24" s="19" t="str">
@@ -6477,14 +6492,8 @@
       </c>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="N25" s="19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O25" s="4">
         <f>VLOOKUP(N25,价值设定!$B:$G,6,0)</f>
@@ -6494,7 +6503,7 @@
         <v>500</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="R25" s="19" t="str">
@@ -6539,16 +6548,15 @@
       </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="N26" s="19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O26" s="4">
         <f>VLOOKUP(N26,价值设定!$B:$G,6,0)</f>
@@ -6558,7 +6566,7 @@
         <v>1000</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="R26" s="19" t="str">
@@ -6603,16 +6611,15 @@
       </c>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="C27" s="2"/>
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.5</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="N27" s="19" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O27" s="4">
         <f>VLOOKUP(N27,价值设定!$B:$G,6,0)</f>
@@ -6622,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="R27" s="19" t="str">
@@ -6667,8 +6674,14 @@
       </c>
     </row>
     <row r="28" spans="1:30">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.85</v>
+      </c>
       <c r="N28" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O28" s="4">
         <f>VLOOKUP(N28,价值设定!$B:$G,6,0)</f>
@@ -6678,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="R28" s="19" t="str">
@@ -6723,14 +6736,14 @@
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>142</v>
+      <c r="A29" s="4">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O29" s="4">
         <f>VLOOKUP(N29,价值设定!$B:$G,6,0)</f>
@@ -6740,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="R29" s="19" t="str">
@@ -6785,17 +6798,8 @@
       </c>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C30" s="1">
-        <v>8</v>
-      </c>
       <c r="N30" s="19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O30" s="4">
         <f>VLOOKUP(N30,价值设定!$B:$G,6,0)</f>
@@ -6805,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="R30" s="19" t="str">
@@ -6850,17 +6854,8 @@
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="1">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C31" s="1">
-        <v>14</v>
-      </c>
       <c r="N31" s="19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="O31" s="4">
         <f>VLOOKUP(N31,价值设定!$B:$G,6,0)</f>
@@ -6870,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="R31" s="19" t="str">
@@ -6915,17 +6910,8 @@
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="1">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>20</v>
-      </c>
       <c r="N32" s="19" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O32" s="4">
         <f>VLOOKUP(N32,价值设定!$B:$G,6,0)</f>
@@ -6935,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="R32" s="19" t="str">
@@ -6981,7 +6967,7 @@
     </row>
     <row r="33" spans="9:42">
       <c r="N33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O33" s="4">
         <f>VLOOKUP(N33,价值设定!$B:$G,6,0)</f>
@@ -6991,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="R33" s="19" t="str">
@@ -7037,7 +7023,7 @@
     </row>
     <row r="34" spans="9:42">
       <c r="N34" s="19" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="O34" s="4">
         <f>VLOOKUP(N34,价值设定!$B:$G,6,0)</f>
@@ -7047,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="R34" s="19" t="str">
@@ -7093,7 +7079,7 @@
     </row>
     <row r="35" spans="9:42">
       <c r="N35" s="19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="O35" s="4">
         <f>VLOOKUP(N35,价值设定!$B:$G,6,0)</f>
@@ -7149,7 +7135,7 @@
     </row>
     <row r="36" spans="9:42">
       <c r="N36" s="19" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O36" s="4">
         <v>15</v>
@@ -7158,11 +7144,11 @@
         <v>1</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" ref="Q36:Q38" si="6">P36*O36</f>
+        <f t="shared" ref="Q36:Q38" si="7">P36*O36</f>
         <v>15</v>
       </c>
       <c r="R36" s="19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="S36" s="4">
         <v>10</v>
@@ -7203,7 +7189,7 @@
     </row>
     <row r="37" spans="9:42">
       <c r="N37" s="19" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O37" s="4">
         <v>40</v>
@@ -7212,11 +7198,11 @@
         <v>1</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="R37" s="19" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S37" s="4">
         <v>5</v>
@@ -7257,7 +7243,7 @@
     </row>
     <row r="38" spans="9:42">
       <c r="N38" s="19" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O38" s="4">
         <v>200</v>
@@ -7266,11 +7252,11 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="R38" s="19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="S38" s="4">
         <v>0</v>
@@ -7313,51 +7299,51 @@
       <c r="N39" s="19"/>
       <c r="Q39" s="4"/>
       <c r="S39" s="4">
-        <f t="shared" ref="S39:AD39" si="7">SUM(S22:S38)</f>
+        <f t="shared" ref="S39:AD39" si="8">SUM(S22:S38)</f>
         <v>120</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="X39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="Y39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>176</v>
       </c>
       <c r="Z39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>181</v>
       </c>
       <c r="AA39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>178</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="AC39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
     </row>
@@ -7383,61 +7369,61 @@
         <v>306</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="Q41" s="4">
         <f>Q22</f>
         <v>10</v>
       </c>
       <c r="S41" s="20">
-        <f t="shared" ref="S41:AD41" si="8">S22/S$39</f>
+        <f t="shared" ref="S41:AD41" si="9">S22/S$39</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="T41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="U41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="V41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="W41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="X41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="Y41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8409090909090908E-2</v>
       </c>
       <c r="Z41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7624309392265192E-2</v>
       </c>
       <c r="AA41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8089887640449437E-2</v>
       </c>
       <c r="AB41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE41" s="20"/>
@@ -7459,61 +7445,61 @@
         <v>307</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" ref="Q42:Q57" si="9">Q23</f>
+        <f t="shared" ref="Q42:Q57" si="10">Q23</f>
         <v>20</v>
       </c>
       <c r="S42" s="20">
-        <f t="shared" ref="S42:AD42" si="10">S23/S$39</f>
+        <f t="shared" ref="S42:AD42" si="11">S23/S$39</f>
         <v>0</v>
       </c>
       <c r="T42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="W42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="X42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="Y42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="Z42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.5248618784530384E-2</v>
       </c>
       <c r="AA42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="AB42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE42" s="20"/>
@@ -7535,61 +7521,61 @@
         <v>308</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Q43" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="S43" s="20">
-        <f t="shared" ref="S43:AD43" si="11">S24/S$39</f>
+        <f t="shared" ref="S43:AD43" si="12">S24/S$39</f>
         <v>0</v>
       </c>
       <c r="T43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="Z43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.5248618784530384E-2</v>
       </c>
       <c r="AA43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="AB43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AC43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AD43" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AE43" s="20"/>
@@ -7611,61 +7597,61 @@
         <v>309</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S44" s="20">
-        <f t="shared" ref="S44:AD44" si="12">S25/S$39</f>
+        <f t="shared" ref="S44:AD44" si="13">S25/S$39</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="T44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="U44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="V44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="W44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="X44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="Y44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7045454545454544E-2</v>
       </c>
       <c r="Z44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6574585635359115E-2</v>
       </c>
       <c r="AA44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6853932584269662E-2</v>
       </c>
       <c r="AB44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD44" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE44" s="20"/>
@@ -7687,61 +7673,61 @@
         <v>310</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="S45" s="20">
-        <f t="shared" ref="S45:AD45" si="13">S26/S$39</f>
+        <f t="shared" ref="S45:AD45" si="14">S26/S$39</f>
         <v>0</v>
       </c>
       <c r="T45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="W45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="X45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="Y45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8409090909090908E-2</v>
       </c>
       <c r="Z45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7624309392265192E-2</v>
       </c>
       <c r="AA45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8089887640449437E-2</v>
       </c>
       <c r="AB45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD45" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE45" s="20"/>
@@ -7763,61 +7749,61 @@
         <v>311</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="Q46" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="S46" s="20">
-        <f t="shared" ref="S46:AD46" si="14">S27/S$39</f>
+        <f t="shared" ref="S46:AD46" si="15">S27/S$39</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="T46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="U46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="V46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="W46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="X46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="Y46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE46" s="20"/>
@@ -7839,61 +7825,61 @@
         <v>312</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="S47" s="20">
-        <f t="shared" ref="S47:AD47" si="15">S28/S$39</f>
+        <f t="shared" ref="S47:AD47" si="16">S28/S$39</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="T47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="U47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="V47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="W47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="X47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="Y47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="Z47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5248618784530384E-2</v>
       </c>
       <c r="AA47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="AB47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD47" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE47" s="20"/>
@@ -7915,61 +7901,61 @@
         <v>313</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q48" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="S48" s="20">
-        <f t="shared" ref="S48:AD48" si="16">S29/S$39</f>
+        <f t="shared" ref="S48:AD48" si="17">S29/S$39</f>
         <v>0</v>
       </c>
       <c r="T48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="W48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="X48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="Y48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="Z48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.5248618784530384E-2</v>
       </c>
       <c r="AA48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="AB48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD48" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE48" s="20"/>
@@ -7991,61 +7977,61 @@
         <v>314</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="S49" s="20">
-        <f t="shared" ref="S49:AD49" si="17">S30/S$39</f>
+        <f t="shared" ref="S49:AD49" si="18">S30/S$39</f>
         <v>0</v>
       </c>
       <c r="T49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.8409090909090908E-2</v>
       </c>
       <c r="Z49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3149171270718231E-2</v>
       </c>
       <c r="AA49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.8089887640449437E-2</v>
       </c>
       <c r="AB49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="AC49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="AD49" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="AE49" s="20"/>
@@ -8067,61 +8053,61 @@
         <v>315</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="Q50" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="S50" s="20">
-        <f t="shared" ref="S50:AD50" si="18">S31/S$39</f>
+        <f t="shared" ref="S50:AD50" si="19">S31/S$39</f>
         <v>0.5</v>
       </c>
       <c r="T50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="U50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="V50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="W50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="X50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="Y50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AC50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD50" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AE50" s="20"/>
@@ -8143,61 +8129,61 @@
         <v>316</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="Q51" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="S51" s="20">
-        <f t="shared" ref="S51:AD51" si="19">S32/S$39</f>
+        <f t="shared" ref="S51:AD51" si="20">S32/S$39</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="T51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="U51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="V51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="W51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="X51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="Y51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.29545454545454547</v>
       </c>
       <c r="Z51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.24861878453038674</v>
       </c>
       <c r="AA51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.29213483146067415</v>
       </c>
       <c r="AB51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AD51" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE51" s="20"/>
@@ -8219,61 +8205,61 @@
         <v>317</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Q52" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="S52" s="20">
-        <f t="shared" ref="S52:AD52" si="20">S33/S$39</f>
+        <f t="shared" ref="S52:AD52" si="21">S33/S$39</f>
         <v>0</v>
       </c>
       <c r="T52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="W52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="X52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="Y52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.19886363636363635</v>
       </c>
       <c r="Z52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.24861878453038674</v>
       </c>
       <c r="AA52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.19662921348314608</v>
       </c>
       <c r="AB52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="AC52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AD52" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.23809523809523808</v>
       </c>
       <c r="AE52" s="20"/>
@@ -8293,55 +8279,55 @@
       <c r="I53" s="21"/>
       <c r="N53" s="1"/>
       <c r="Q53" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>600</v>
       </c>
       <c r="S53" s="20">
-        <f t="shared" ref="S53:AD53" si="21">S34/S$39</f>
+        <f t="shared" ref="S53:AD53" si="22">S34/S$39</f>
         <v>0</v>
       </c>
       <c r="T53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.681818181818182E-3</v>
       </c>
       <c r="Z53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1049723756906077E-2</v>
       </c>
       <c r="AA53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.6853932584269662E-2</v>
       </c>
       <c r="AB53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AC53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AD53" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="AE53" s="20"/>
@@ -8361,55 +8347,55 @@
       <c r="I54" s="21"/>
       <c r="N54" s="1"/>
       <c r="Q54" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="S54" s="20">
-        <f t="shared" ref="S54:AD54" si="22">S35/S$39</f>
+        <f t="shared" ref="S54:AD54" si="23">S35/S$39</f>
         <v>0</v>
       </c>
       <c r="T54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="Z54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.5248618784530384E-2</v>
       </c>
       <c r="AA54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="AB54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="AC54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="AD54" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="AE54" s="20"/>
@@ -8429,55 +8415,55 @@
       <c r="I55" s="21"/>
       <c r="N55" s="1"/>
       <c r="Q55" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="S55" s="20">
-        <f t="shared" ref="S55:AD55" si="23">S36/S$39</f>
+        <f t="shared" ref="S55:AD55" si="24">S36/S$39</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="T55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="U55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="V55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="W55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="X55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="Y55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD55" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE55" s="20"/>
@@ -8496,110 +8482,110 @@
     <row r="56" spans="9:42">
       <c r="N56" s="1"/>
       <c r="Q56" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="S56" s="20">
-        <f t="shared" ref="S56:AD56" si="24">S37/S$39</f>
+        <f t="shared" ref="S56:AD56" si="25">S37/S$39</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="T56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="U56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="V56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="W56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="X56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="Y56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="Z56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.5248618784530384E-2</v>
       </c>
       <c r="AA56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="AB56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="AC56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="AD56" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.11904761904761904</v>
       </c>
     </row>
     <row r="57" spans="9:42">
       <c r="N57" s="1"/>
       <c r="Q57" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="S57" s="20">
-        <f t="shared" ref="S57:AD57" si="25">S38/S$39</f>
+        <f t="shared" ref="S57:AD57" si="26">S38/S$39</f>
         <v>0</v>
       </c>
       <c r="T57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="Z57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.5248618784530384E-2</v>
       </c>
       <c r="AA57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="AB57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AC57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AD57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
@@ -8607,51 +8593,51 @@
       <c r="N58" s="1"/>
       <c r="Q58" s="4"/>
       <c r="S58" s="4">
-        <f t="shared" ref="S58:AD58" si="26">SUMPRODUCT($Q$41:$Q$56,S41:S56)</f>
+        <f t="shared" ref="S58:AD58" si="27">SUMPRODUCT($Q$41:$Q$56,S41:S56)</f>
         <v>9.3333333333333321</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10.454545454545455</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.272727272727272</v>
       </c>
       <c r="V58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>15.361111111111112</v>
       </c>
       <c r="W58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16.441176470588236</v>
       </c>
       <c r="X58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>20.404761904761902</v>
       </c>
       <c r="Y58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>33.806818181818187</v>
       </c>
       <c r="Z58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>38.701657458563531</v>
       </c>
       <c r="AA58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>40.168539325842701</v>
       </c>
       <c r="AB58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>91.666666666666657</v>
       </c>
       <c r="AC58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>130.95238095238093</v>
       </c>
       <c r="AD58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>157.14285714285714</v>
       </c>
     </row>
@@ -8688,16 +8674,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="1"/>
     <col min="5" max="5" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1"/>
@@ -8705,37 +8691,37 @@
     <col min="11" max="12" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" style="4" customWidth="1"/>
     <col min="17" max="17" width="11" style="1"/>
     <col min="18" max="18" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <f>副本产出!B26</f>
+        <f>副本产出!B23</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <f>副本产出!B27</f>
+        <f>副本产出!B24</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -8743,10 +8729,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -8772,41 +8758,41 @@
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="O5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1">
+        <v>69</v>
+      </c>
+      <c r="B6" s="24">
         <f>VLOOKUP(A6,价值设定!$B:$G,6,0)</f>
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(A6,价值设定!$B:$G,3,0)&amp;","&amp;E6</f>
-        <v>prop,805,5</v>
+        <v>prop,705,1</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>C6</f>
-        <v>prop,805,5</v>
+        <f t="shared" ref="D6:D20" si="0">C6</f>
+        <v>prop,705,1</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <f>E6*B6</f>
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G6" s="5">
         <v>0.5</v>
@@ -8817,62 +8803,64 @@
       </c>
       <c r="I6" s="1">
         <f>F6*G6</f>
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="J6" s="1">
         <f>F6*H6</f>
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="K6" s="1">
         <f>INT(I6/$B$2)</f>
-        <v>62</v>
+        <v>375</v>
       </c>
       <c r="L6" s="1">
         <f>INT(J6/$B$3)</f>
-        <v>52</v>
-      </c>
-      <c r="M6" s="1">
-        <f>CEILING(K6,5)</f>
-        <v>65</v>
-      </c>
-      <c r="N6" s="1">
-        <f>(F6-M6*$B$2)/$B$3</f>
-        <v>50</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-      <c r="P6" s="1">
-        <v>10</v>
+        <v>312</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" ref="M6:M18" si="1">CEILING(K6,5)</f>
+        <v>375</v>
+      </c>
+      <c r="N6" s="6">
+        <v>320</v>
+      </c>
+      <c r="O6" s="27">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
       </c>
       <c r="Q6" s="1" t="str">
         <f>"prop,806,"&amp;M6</f>
-        <v>prop,806,65</v>
+        <v>prop,806,375</v>
       </c>
       <c r="R6" s="1" t="str">
         <f>"prop,807,"&amp;N6</f>
-        <v>prop,807,50</v>
+        <v>prop,807,320</v>
       </c>
       <c r="S6" s="1" t="str">
-        <f>Q6&amp;";"&amp;R6</f>
-        <v>prop,806,65;prop,807,50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <f t="shared" ref="S6:S18" si="2">Q6&amp;";"&amp;R6</f>
+        <v>prop,806,375;prop,807,320</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="1">
+        <v>70</v>
+      </c>
+      <c r="B7" s="24">
         <f>VLOOKUP(A7,价值设定!$B:$G,6,0)</f>
         <v>1500</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(A7,价值设定!$B:$G,3,0)&amp;","&amp;E7</f>
-        <v>prop,705,1</v>
+        <v>prop,706,1</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" ref="D7:D19" si="0">C7</f>
-        <v>prop,705,1</v>
+        <f t="shared" si="0"/>
+        <v>prop,706,1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -8885,7 +8873,6 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="5">
-        <f>1-G7</f>
         <v>0.5</v>
       </c>
       <c r="I7" s="1">
@@ -8904,17 +8891,17 @@
         <f>INT(J7/$B$3)</f>
         <v>312</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" ref="M7:M17" si="1">CEILING(K7,5)</f>
+      <c r="M7" s="6">
+        <f t="shared" ref="M7" si="3">CEILING(K7,5)</f>
         <v>375</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="6">
         <v>320</v>
       </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="O7" s="27">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
         <v>2</v>
       </c>
       <c r="Q7" s="1" t="str">
@@ -8926,32 +8913,34 @@
         <v>prop,807,320</v>
       </c>
       <c r="S7" s="1" t="str">
-        <f t="shared" ref="S7:S17" si="2">Q7&amp;";"&amp;R7</f>
+        <f t="shared" ref="S7" si="4">Q7&amp;";"&amp;R7</f>
         <v>prop,806,375;prop,807,320</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="1">
+        <v>51</v>
+      </c>
+      <c r="B8" s="24">
         <f>VLOOKUP(A8,价值设定!$B:$G,6,0)</f>
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>VLOOKUP(A8,价值设定!$B:$G,3,0)&amp;","&amp;E8</f>
-        <v>prop,706,1</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>prop,706,1</v>
+        <f>VLOOKUP(A8,价值设定!$B:$G,3,0)</f>
+        <v>pack,303</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
         <f>E8*B8</f>
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5">
         <v>0.5</v>
@@ -8960,68 +8949,71 @@
         <v>0.5</v>
       </c>
       <c r="I8" s="1">
-        <f>F8*G8</f>
-        <v>750</v>
+        <f t="shared" ref="I8:I10" si="5">F8*G8</f>
+        <v>25</v>
       </c>
       <c r="J8" s="1">
-        <f>F8*H8</f>
-        <v>750</v>
+        <f t="shared" ref="J8:J10" si="6">F8*H8</f>
+        <v>25</v>
       </c>
       <c r="K8" s="1">
-        <f>INT(I8/$B$2)</f>
-        <v>375</v>
+        <f t="shared" ref="K8:K10" si="7">INT(I8/$B$2)</f>
+        <v>12</v>
       </c>
       <c r="L8" s="1">
-        <f>INT(J8/$B$3)</f>
-        <v>312</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" ref="M8" si="3">CEILING(K8,5)</f>
-        <v>375</v>
-      </c>
-      <c r="N8" s="1">
-        <v>320</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
+        <f t="shared" ref="L8:L10" si="8">INT(J8/$B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" ref="M8:M10" si="9">CEILING(K8,5)</f>
+        <v>15</v>
+      </c>
+      <c r="N8" s="27">
+        <v>10</v>
+      </c>
+      <c r="O8" s="27">
+        <v>12</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5</v>
       </c>
       <c r="Q8" s="1" t="str">
-        <f>"prop,806,"&amp;M8</f>
-        <v>prop,806,375</v>
+        <f t="shared" ref="Q8:Q10" si="10">"prop,806,"&amp;M8</f>
+        <v>prop,806,15</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f>"prop,807,"&amp;N8</f>
-        <v>prop,807,320</v>
+        <f t="shared" ref="R8:R10" si="11">"prop,807,"&amp;N8</f>
+        <v>prop,807,10</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f t="shared" ref="S8" si="4">Q8&amp;";"&amp;R8</f>
-        <v>prop,806,375;prop,807,320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <f t="shared" si="2"/>
+        <v>prop,806,15;prop,807,10</v>
+      </c>
+      <c r="T8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1">
+        <v>52</v>
+      </c>
+      <c r="B9" s="24">
         <f>VLOOKUP(A9,价值设定!$B:$G,6,0)</f>
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>VLOOKUP(A9,价值设定!$B:$G,3,0)</f>
-        <v>pack,303</v>
+        <v>pack,304</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F10" si="5">E9*B9</f>
-        <v>50</v>
+        <f>E9*B9</f>
+        <v>600</v>
       </c>
       <c r="G9" s="5">
         <v>0.5</v>
@@ -9030,68 +9022,72 @@
         <v>0.5</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I10" si="6">F9*G9</f>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" ref="J9:J10" si="7">F9*H9</f>
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>300</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" ref="K9:K10" si="8">INT(I9/$B$2)</f>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" ref="L9:L10" si="9">INT(J9/$B$3)</f>
-        <v>10</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" ref="M9:M10" si="10">CEILING(K9,5)</f>
-        <v>15</v>
-      </c>
-      <c r="N9" s="1">
-        <v>10</v>
-      </c>
-      <c r="O9" s="1">
-        <v>10</v>
-      </c>
-      <c r="P9" s="1">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" ref="N9" si="12">(F9-M9*$B$2)/$B$3</f>
+        <v>125</v>
+      </c>
+      <c r="O9" s="27">
+        <v>6</v>
+      </c>
+      <c r="P9" s="4">
         <v>4</v>
       </c>
       <c r="Q9" s="1" t="str">
-        <f t="shared" ref="Q9:Q10" si="11">"prop,806,"&amp;M9</f>
-        <v>prop,806,15</v>
+        <f t="shared" si="10"/>
+        <v>prop,806,150</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f t="shared" ref="R9:R10" si="12">"prop,807,"&amp;N9</f>
-        <v>prop,807,10</v>
+        <f t="shared" si="11"/>
+        <v>prop,807,125</v>
       </c>
       <c r="S9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>prop,806,15;prop,807,10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>prop,806,150;prop,807,125</v>
+      </c>
+      <c r="T9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="1">
+        <v>138</v>
+      </c>
+      <c r="B10" s="24">
         <f>VLOOKUP(A10,价值设定!$B:$G,6,0)</f>
-        <v>600</v>
+        <v>4800</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>VLOOKUP(A10,价值设定!$B:$G,3,0)</f>
-        <v>pack,304</v>
+        <v>pack,305</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="5"/>
-        <v>600</v>
+        <f>E10*B10</f>
+        <v>4800</v>
       </c>
       <c r="G10" s="5">
         <v>0.5</v>
@@ -9100,53 +9096,55 @@
         <v>0.5</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="J10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="K10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="8"/>
-        <v>150</v>
-      </c>
-      <c r="L10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="6">
         <f t="shared" si="9"/>
-        <v>125</v>
-      </c>
-      <c r="M10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="27">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" ref="N10" si="13">(F10-M10*$B$2)/$B$3</f>
-        <v>125</v>
-      </c>
-      <c r="O10" s="1">
-        <v>5</v>
-      </c>
-      <c r="P10" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1" t="str">
+        <v>prop,806,1200</v>
+      </c>
+      <c r="R10" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>prop,806,150</v>
-      </c>
-      <c r="R10" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>prop,807,125</v>
+        <v>prop,807,1000</v>
       </c>
       <c r="S10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>prop,806,150;prop,807,125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>prop,806,1200;prop,807,1000</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="24">
         <f>VLOOKUP(A11,价值设定!$B:$G,6,0)</f>
         <v>300</v>
       </c>
@@ -9162,63 +9160,66 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:F19" si="14">E11*B11</f>
+        <f>E11*B11</f>
         <v>300</v>
       </c>
       <c r="G11" s="5">
         <v>0.5</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ref="H11:H19" si="15">1-G11</f>
+        <f t="shared" ref="H11:H20" si="13">1-G11</f>
         <v>0.5</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11:I19" si="16">F11*G11</f>
+        <f t="shared" ref="I11:I20" si="14">F11*G11</f>
         <v>150</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="J11:J19" si="17">F11*H11</f>
+        <f t="shared" ref="J11:J20" si="15">F11*H11</f>
         <v>150</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="K11:K19" si="18">INT(I11/$B$2)</f>
+        <f t="shared" ref="K11:K20" si="16">INT(I11/$B$2)</f>
         <v>75</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11:L19" si="19">INT(J11/$B$3)</f>
+        <f t="shared" ref="L11:L20" si="17">INT(J11/$B$3)</f>
         <v>62</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="6">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="6">
         <v>60</v>
       </c>
-      <c r="O11" s="1">
-        <v>10</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="O11" s="27">
         <v>5</v>
       </c>
+      <c r="P11" s="4">
+        <v>6</v>
+      </c>
       <c r="Q11" s="1" t="str">
-        <f t="shared" ref="Q11:Q19" si="20">"prop,806,"&amp;M11</f>
+        <f t="shared" ref="Q11:Q20" si="18">"prop,806,"&amp;M11</f>
         <v>prop,806,75</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f t="shared" ref="R11:R19" si="21">"prop,807,"&amp;N11</f>
+        <f t="shared" ref="R11:R20" si="19">"prop,807,"&amp;N11</f>
         <v>prop,807,60</v>
       </c>
       <c r="S11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>prop,806,75;prop,807,60</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="24">
         <f>VLOOKUP(A12,价值设定!$B:$G,6,0)</f>
         <v>90</v>
       </c>
@@ -9234,63 +9235,66 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="14"/>
+        <f>E12*B12</f>
         <v>90</v>
       </c>
       <c r="G12" s="5">
         <v>0.75</v>
       </c>
       <c r="H12" s="5">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="14"/>
+        <v>67.5</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="I12" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="16"/>
-        <v>67.5</v>
-      </c>
-      <c r="J12" s="1">
+        <v>33</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="17"/>
-        <v>22.5</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="18"/>
-        <v>33</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="6">
         <v>20</v>
       </c>
-      <c r="O12" s="1">
-        <v>10</v>
-      </c>
-      <c r="P12" s="1">
-        <v>6</v>
+      <c r="O12" s="27">
+        <v>16</v>
+      </c>
+      <c r="P12" s="4">
+        <v>7</v>
       </c>
       <c r="Q12" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>prop,806,35</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>prop,807,20</v>
       </c>
       <c r="S12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>prop,806,35;prop,807,20</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="24">
         <f>VLOOKUP(A13,价值设定!$B:$G,6,0)</f>
         <v>360</v>
       </c>
@@ -9306,63 +9310,66 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="14"/>
+        <f>E13*B13</f>
         <v>360</v>
       </c>
       <c r="G13" s="5">
         <v>0.75</v>
       </c>
       <c r="H13" s="5">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="14"/>
+        <v>270</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="I13" s="1">
+        <v>90</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="16"/>
-        <v>270</v>
-      </c>
-      <c r="J13" s="1">
+        <v>135</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="17"/>
-        <v>90</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="18"/>
-        <v>135</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="19"/>
         <v>37</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="6">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="6">
         <v>40</v>
       </c>
-      <c r="O13" s="1">
-        <v>10</v>
-      </c>
-      <c r="P13" s="1">
-        <v>7</v>
+      <c r="O13" s="27">
+        <v>16</v>
+      </c>
+      <c r="P13" s="4">
+        <v>8</v>
       </c>
       <c r="Q13" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>prop,806,135</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>prop,807,40</v>
       </c>
       <c r="S13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>prop,806,135;prop,807,40</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="24">
         <f>VLOOKUP(A14,价值设定!$B:$G,6,0)</f>
         <v>30</v>
       </c>
@@ -9378,63 +9385,66 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="14"/>
+        <f>E14*B14</f>
         <v>30</v>
       </c>
       <c r="G14" s="5">
         <v>0.25</v>
       </c>
       <c r="H14" s="5">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="15"/>
-        <v>0.75</v>
-      </c>
-      <c r="I14" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="16"/>
-        <v>7.5</v>
-      </c>
-      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="17"/>
-        <v>22.5</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="6">
         <v>45</v>
       </c>
-      <c r="O14" s="1">
-        <v>10</v>
-      </c>
-      <c r="P14" s="1">
-        <v>8</v>
+      <c r="O14" s="27">
+        <v>16</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9</v>
       </c>
       <c r="Q14" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>prop,806,5</v>
       </c>
       <c r="R14" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>prop,807,45</v>
       </c>
       <c r="S14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>prop,806,5;prop,807,45</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="24">
         <f>VLOOKUP(A15,价值设定!$B:$G,6,0)</f>
         <v>360</v>
       </c>
@@ -9450,357 +9460,629 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="14"/>
+        <f>E15*B15</f>
         <v>360</v>
       </c>
       <c r="G15" s="5">
         <v>0.25</v>
       </c>
       <c r="H15" s="5">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="15"/>
-        <v>0.75</v>
-      </c>
-      <c r="I15" s="1">
+        <v>270</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="16"/>
-        <v>90</v>
-      </c>
-      <c r="J15" s="1">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="17"/>
-        <v>270</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="18"/>
-        <v>45</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="19"/>
         <v>112</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="6">
         <v>110</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="27">
+        <v>16</v>
+      </c>
+      <c r="P15" s="4">
         <v>10</v>
       </c>
-      <c r="P15" s="1">
-        <v>9</v>
-      </c>
       <c r="Q15" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>prop,806,45</v>
       </c>
       <c r="R15" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>prop,807,110</v>
       </c>
       <c r="S15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>prop,806,45;prop,807,110</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="T15" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="24">
         <f>VLOOKUP(A16,价值设定!$B:$G,6,0)</f>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>VLOOKUP(A16,价值设定!$B:$G,3,0)&amp;","&amp;E16</f>
+        <v>prop,805,5</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>C16</f>
+        <v>prop,805,5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <f>E16*B16</f>
+        <v>250</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="5">
+        <f>1-G16</f>
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="1">
+        <f>F16*G16</f>
+        <v>125</v>
+      </c>
+      <c r="J16" s="1">
+        <f>F16*H16</f>
+        <v>125</v>
+      </c>
+      <c r="K16" s="1">
+        <f>INT(I16/$B$2)</f>
+        <v>62</v>
+      </c>
+      <c r="L16" s="1">
+        <f>INT(J16/$B$3)</f>
+        <v>52</v>
+      </c>
+      <c r="M16" s="6">
+        <f>CEILING(K16,5)</f>
+        <v>65</v>
+      </c>
+      <c r="N16" s="6">
+        <f>(F16-M16*$B$2)/$B$3</f>
+        <v>50</v>
+      </c>
+      <c r="O16" s="27">
+        <v>3</v>
+      </c>
+      <c r="P16" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f>"prop,806,"&amp;M16</f>
+        <v>prop,806,65</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>"prop,807,"&amp;N16</f>
+        <v>prop,807,50</v>
+      </c>
+      <c r="S16" s="1" t="str">
+        <f>Q16&amp;";"&amp;R16</f>
+        <v>prop,806,65;prop,807,50</v>
+      </c>
+      <c r="T16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="24">
+        <f>VLOOKUP(A17,价值设定!$B:$G,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>VLOOKUP(A17,价值设定!$B:$G,3,0)&amp;","&amp;E17</f>
         <v>prop,801,5</v>
       </c>
-      <c r="D16" s="1" t="str">
+      <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>prop,801,5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
+        <f>E17*B17</f>
+        <v>75</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="14"/>
-        <v>75</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="H16" s="5">
+        <v>18.75</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="15"/>
-        <v>0.75</v>
-      </c>
-      <c r="I16" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="16"/>
-        <v>18.75</v>
-      </c>
-      <c r="J16" s="1">
+        <v>9</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="17"/>
-        <v>56.25</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="19"/>
         <v>23</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M17" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N17" s="6">
         <v>25</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O17" s="27">
         <v>10</v>
       </c>
-      <c r="P16" s="1">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="1" t="str">
-        <f t="shared" si="20"/>
+      <c r="P17" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>prop,806,10</v>
       </c>
-      <c r="R16" s="1" t="str">
-        <f t="shared" si="21"/>
+      <c r="R17" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>prop,807,25</v>
       </c>
-      <c r="S16" s="1" t="str">
+      <c r="S17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>prop,806,10;prop,807,25</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1">
-        <f>VLOOKUP(A17,价值设定!$B:$G,6,0)</f>
+      <c r="T17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="24">
+        <f>VLOOKUP(A18,价值设定!$B:$G,6,0)</f>
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="str">
-        <f>VLOOKUP(A17,价值设定!$B:$G,3,0)&amp;","&amp;E17</f>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(A18,价值设定!$B:$G,3,0)&amp;","&amp;E18</f>
         <v>prop,802,1</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>prop,802,1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
+        <f>E18*B18</f>
+        <v>50</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H17" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="I17" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="16"/>
-        <v>37.5</v>
-      </c>
-      <c r="J17" s="1">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" si="17"/>
-        <v>12.5</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="18"/>
-        <v>18</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M18" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N18" s="6">
         <v>5</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O18" s="27">
         <v>10</v>
       </c>
-      <c r="P17" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="1" t="str">
-        <f t="shared" si="20"/>
+      <c r="P18" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>prop,806,20</v>
       </c>
-      <c r="R17" s="1" t="str">
-        <f t="shared" si="21"/>
+      <c r="R18" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>prop,807,5</v>
       </c>
-      <c r="S17" s="1" t="str">
+      <c r="S18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>prop,806,20;prop,807,5</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="8">
-        <f>VLOOKUP(A18,价值设定!$B:$G,6,0)</f>
-        <v>0.02</v>
-      </c>
-      <c r="C18" s="8" t="str">
-        <f>VLOOKUP(A18,价值设定!$B:$G,3,0)&amp;","&amp;E18</f>
-        <v>coin,100</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>coin,100</v>
-      </c>
-      <c r="E18" s="8">
-        <f>B2/B18</f>
-        <v>100</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <f>K18</f>
-        <v>1</v>
-      </c>
-      <c r="N18" s="8">
-        <f>L18</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>-1</v>
-      </c>
-      <c r="P18" s="8">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="8" t="str">
-        <f t="shared" si="20"/>
-        <v>prop,806,1</v>
-      </c>
-      <c r="R18" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>prop,807,0</v>
-      </c>
-      <c r="S18" s="8" t="str">
-        <f>Q18</f>
-        <v>prop,806,1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B19" s="8">
-        <f>VLOOKUP(A19,价值设定!$B:$G,6,0)</f>
-        <v>0.02</v>
+        <f>$B$30</f>
+        <v>7.0977777777777792E-2</v>
       </c>
       <c r="C19" s="8" t="str">
         <f>VLOOKUP(A19,价值设定!$B:$G,3,0)&amp;","&amp;E19</f>
-        <v>coin,120</v>
+        <v>coin,30</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>coin,120</v>
+        <v>coin,30</v>
       </c>
       <c r="E19" s="8">
-        <f>B3/B19</f>
-        <v>120</v>
-      </c>
-      <c r="F19" s="8">
+        <f>CEILING($B$2/B19*M19,5)</f>
+        <v>30</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
         <f t="shared" si="14"/>
-        <v>2.4</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="28">
         <v>1</v>
       </c>
-      <c r="I19" s="8">
+      <c r="N19" s="28">
+        <f>L19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="28">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>prop,806,1</v>
+      </c>
+      <c r="R19" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>prop,807,0</v>
+      </c>
+      <c r="S19" s="8" t="str">
+        <f>Q19</f>
+        <v>prop,806,1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" ref="B20:B22" si="20">$B$30</f>
+        <v>7.0977777777777792E-2</v>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f>VLOOKUP(A20,价值设定!$B:$G,3,0)&amp;","&amp;E20</f>
+        <v>coin,35</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>coin,35</v>
+      </c>
+      <c r="E20" s="8">
+        <f>CEILING($B$3/B20*N20,5)</f>
+        <v>35</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J19" s="8">
+      <c r="L20" s="8">
         <f t="shared" si="17"/>
-        <v>2.4</v>
-      </c>
-      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="28">
+        <f>K20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="28">
+        <v>1</v>
+      </c>
+      <c r="O20" s="28">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="8" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
+        <v>prop,806,0</v>
+      </c>
+      <c r="R20" s="8" t="str">
         <f t="shared" si="19"/>
+        <v>prop,807,1</v>
+      </c>
+      <c r="S20" s="8" t="str">
+        <f>R20</f>
+        <v>prop,807,1</v>
+      </c>
+      <c r="U20" s="1">
+        <f>SUMPRODUCT(T6:T18,E6:E18,O6:O18)</f>
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="20"/>
+        <v>7.0977777777777792E-2</v>
+      </c>
+      <c r="C21" s="8" t="str">
+        <f>VLOOKUP(A21,价值设定!$B:$G,3,0)&amp;","&amp;E21</f>
+        <v>coin,300</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" ref="D21:D22" si="21">C21</f>
+        <v>coin,300</v>
+      </c>
+      <c r="E21" s="8">
+        <f>E19*10</f>
+        <v>300</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9">
         <v>1</v>
       </c>
-      <c r="M19" s="8">
-        <f>K19</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <f>L19</f>
+      <c r="H21" s="9">
+        <f t="shared" ref="H21:H22" si="22">1-G21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" ref="I21:I22" si="23">F21*G21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" ref="J21:J22" si="24">F21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" ref="K21:K22" si="25">INT(I21/$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" ref="L21:L22" si="26">INT(J21/$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="28">
+        <v>10</v>
+      </c>
+      <c r="N21" s="28">
+        <f>L21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="28">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="8" t="str">
+        <f t="shared" ref="Q21:Q22" si="27">"prop,806,"&amp;M21</f>
+        <v>prop,806,10</v>
+      </c>
+      <c r="R21" s="8" t="str">
+        <f t="shared" ref="R21:R22" si="28">"prop,807,"&amp;N21</f>
+        <v>prop,807,0</v>
+      </c>
+      <c r="S21" s="8" t="str">
+        <f>Q21</f>
+        <v>prop,806,10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="20"/>
+        <v>7.0977777777777792E-2</v>
+      </c>
+      <c r="C22" s="8" t="str">
+        <f>VLOOKUP(A22,价值设定!$B:$G,3,0)&amp;","&amp;E22</f>
+        <v>coin,350</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>coin,350</v>
+      </c>
+      <c r="E22" s="8">
+        <f>E20*10</f>
+        <v>350</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="O19" s="8">
+      <c r="I22" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="28">
+        <f>K22</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="28">
+        <v>10</v>
+      </c>
+      <c r="O22" s="28">
         <v>-1</v>
       </c>
-      <c r="P19" s="8">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="P22" s="4">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="8" t="str">
+        <f t="shared" si="27"/>
         <v>prop,806,0</v>
       </c>
-      <c r="R19" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>prop,807,1</v>
-      </c>
-      <c r="S19" s="8" t="str">
-        <f>R19</f>
-        <v>prop,807,1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="N20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O20" s="1">
-        <f>SUMPRODUCT(F6:F17,O6:O17)</f>
-        <v>19900</v>
+      <c r="R22" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v>prop,807,10</v>
+      </c>
+      <c r="S22" s="8" t="str">
+        <f>R22</f>
+        <v>prop,807,10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="N24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="1">
+        <f>SUMPRODUCT(F6:F18,O6:O18)</f>
+        <v>31940</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="1">
+        <f>副本产出!B15/50</f>
+        <v>3.548888888888889</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B28/B27</f>
+        <v>0.14088916718847838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B25/B29</f>
+        <v>7.0977777777777792E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9815,7 +10097,7 @@
   <dimension ref="A1:AJ402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N17"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9835,7 +10117,7 @@
   <sheetData>
     <row r="1" spans="1:36">
       <c r="A1" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -9849,107 +10131,107 @@
       <c r="K1" s="16"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="M2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="Z2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="AD2" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AI2" s="15">
         <v>1</v>
       </c>
       <c r="AJ2" s="15">
-        <v>4040</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -9967,23 +10249,23 @@
       </c>
       <c r="E3" s="10" t="str">
         <f>商店兑换!S6</f>
-        <v>prop,806,65;prop,807,50</v>
+        <v>prop,806,375;prop,807,320</v>
       </c>
       <c r="F3" s="10" t="str">
         <f>商店兑换!C6</f>
-        <v>prop,805,5</v>
+        <v>prop,705,1</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>F3</f>
-        <v>prop,805,5</v>
+        <v>prop,705,1</v>
       </c>
       <c r="H3" s="10">
         <f>商店兑换!O6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="10">
         <f>商店兑换!P6</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J3" s="10">
         <v>0</v>
@@ -9993,11 +10275,11 @@
       </c>
       <c r="M3" s="15" t="str">
         <f>副本产出!H2</f>
-        <v>prop,806,30</v>
+        <v>prop,806,34</v>
       </c>
       <c r="N3" s="15" t="str">
         <f>M3</f>
-        <v>prop,806,30</v>
+        <v>prop,806,34</v>
       </c>
       <c r="P3" s="15" t="str">
         <f>副本产出!Q2</f>
@@ -10051,7 +10333,7 @@
         <v>2</v>
       </c>
       <c r="AJ3" s="15">
-        <v>4070</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -10073,15 +10355,15 @@
       </c>
       <c r="F4" s="10" t="str">
         <f>商店兑换!C7</f>
-        <v>prop,705,1</v>
+        <v>prop,706,1</v>
       </c>
       <c r="G4" s="10" t="str">
-        <f t="shared" ref="G4:G16" si="0">F4</f>
-        <v>prop,705,1</v>
+        <f t="shared" ref="G4:G19" si="0">F4</f>
+        <v>prop,706,1</v>
       </c>
       <c r="H4" s="10">
         <f>商店兑换!O7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="10">
         <f>商店兑换!P7</f>
@@ -10095,11 +10377,11 @@
       </c>
       <c r="M4" s="15" t="str">
         <f>副本产出!H3</f>
-        <v>prop,806,20</v>
+        <v>prop,806,23</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" ref="N4:N17" si="1">M4</f>
-        <v>prop,806,20</v>
+        <v>prop,806,23</v>
       </c>
       <c r="P4" s="15" t="str">
         <f>副本产出!Q3</f>
@@ -10168,23 +10450,23 @@
       </c>
       <c r="E5" s="10" t="str">
         <f>商店兑换!S8</f>
-        <v>prop,806,375;prop,807,320</v>
+        <v>prop,806,15;prop,807,10</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>商店兑换!C8</f>
-        <v>prop,706,1</v>
+        <v>pack,303</v>
       </c>
       <c r="G5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>prop,706,1</v>
+        <v>pack,303</v>
       </c>
       <c r="H5" s="10">
         <f>商店兑换!O8</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I5" s="10">
         <f>商店兑换!P8</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="10">
         <v>0</v>
@@ -10194,11 +10476,11 @@
       </c>
       <c r="M5" s="15" t="str">
         <f>副本产出!H4</f>
-        <v>prop,806,40</v>
+        <v>prop,806,45</v>
       </c>
       <c r="N5" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,40</v>
+        <v>prop,806,45</v>
       </c>
       <c r="P5" s="15" t="str">
         <f>副本产出!Q4</f>
@@ -10264,19 +10546,19 @@
       </c>
       <c r="E6" s="10" t="str">
         <f>商店兑换!S9</f>
-        <v>prop,806,15;prop,807,10</v>
+        <v>prop,806,150;prop,807,125</v>
       </c>
       <c r="F6" s="10" t="str">
         <f>商店兑换!C9</f>
-        <v>pack,303</v>
+        <v>pack,304</v>
       </c>
       <c r="G6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>pack,303</v>
+        <v>pack,304</v>
       </c>
       <c r="H6" s="10">
         <f>商店兑换!O9</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I6" s="10">
         <f>商店兑换!P9</f>
@@ -10290,11 +10572,11 @@
       </c>
       <c r="M6" s="15" t="str">
         <f>副本产出!H5</f>
-        <v>prop,807,15</v>
+        <v>prop,807,19</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,15</v>
+        <v>prop,807,19</v>
       </c>
       <c r="P6" s="15" t="str">
         <f>副本产出!Q5</f>
@@ -10360,19 +10642,19 @@
       </c>
       <c r="E7" s="10" t="str">
         <f>商店兑换!S10</f>
-        <v>prop,806,150;prop,807,125</v>
+        <v>prop,806,1200;prop,807,1000</v>
       </c>
       <c r="F7" s="10" t="str">
         <f>商店兑换!C10</f>
-        <v>pack,304</v>
+        <v>pack,305</v>
       </c>
       <c r="G7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>pack,304</v>
+        <v>pack,305</v>
       </c>
       <c r="H7" s="10">
         <f>商店兑换!O10</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="10">
         <f>商店兑换!P10</f>
@@ -10386,11 +10668,11 @@
       </c>
       <c r="M7" s="15" t="str">
         <f>副本产出!H6</f>
-        <v>prop,807,30</v>
+        <v>prop,807,37</v>
       </c>
       <c r="N7" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,30</v>
+        <v>prop,807,37</v>
       </c>
       <c r="P7" s="15" t="str">
         <f>副本产出!Q6</f>
@@ -10468,11 +10750,11 @@
       </c>
       <c r="H8" s="10">
         <f>商店兑换!O11</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I8" s="10">
         <f>商店兑换!P11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="10">
         <v>0</v>
@@ -10482,11 +10764,11 @@
       </c>
       <c r="M8" s="15" t="str">
         <f>副本产出!I2</f>
-        <v>prop,806,50</v>
+        <v>prop,806,57</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,50</v>
+        <v>prop,806,57</v>
       </c>
       <c r="P8" s="15" t="str">
         <f>副本产出!Q7</f>
@@ -10497,7 +10779,7 @@
         <v>prop,702,1</v>
       </c>
       <c r="S8" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U8" s="15">
         <v>32</v>
@@ -10564,11 +10846,11 @@
       </c>
       <c r="H9" s="10">
         <f>商店兑换!O12</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I9" s="10">
         <f>商店兑换!P12</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="10">
         <v>0</v>
@@ -10578,11 +10860,11 @@
       </c>
       <c r="M9" s="15" t="str">
         <f>副本产出!I3</f>
-        <v>prop,806,35</v>
+        <v>prop,806,38</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,35</v>
+        <v>prop,806,38</v>
       </c>
       <c r="P9" s="15" t="str">
         <f>副本产出!Q8</f>
@@ -10593,7 +10875,7 @@
         <v>prop,106,2</v>
       </c>
       <c r="S9" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U9" s="15">
         <v>13</v>
@@ -10660,11 +10942,11 @@
       </c>
       <c r="H10" s="10">
         <f>商店兑换!O13</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I10" s="10">
         <f>商店兑换!P13</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="10">
         <v>0</v>
@@ -10674,11 +10956,11 @@
       </c>
       <c r="M10" s="15" t="str">
         <f>副本产出!I4</f>
-        <v>prop,806,65</v>
+        <v>prop,806,76</v>
       </c>
       <c r="N10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,65</v>
+        <v>prop,806,76</v>
       </c>
       <c r="P10" s="15" t="str">
         <f>副本产出!Q9</f>
@@ -10689,7 +10971,7 @@
         <v>prop,403,3</v>
       </c>
       <c r="S10" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U10" s="15">
         <v>23</v>
@@ -10756,11 +11038,11 @@
       </c>
       <c r="H11" s="10">
         <f>商店兑换!O14</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I11" s="10">
         <f>商店兑换!P14</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11" s="10">
         <v>0</v>
@@ -10770,11 +11052,11 @@
       </c>
       <c r="M11" s="15" t="str">
         <f>副本产出!I5</f>
-        <v>prop,807,30</v>
+        <v>prop,807,32</v>
       </c>
       <c r="N11" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,30</v>
+        <v>prop,807,32</v>
       </c>
       <c r="P11" s="15" t="str">
         <f>副本产出!Q10</f>
@@ -10785,7 +11067,7 @@
         <v>prop,318,1</v>
       </c>
       <c r="S11" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U11" s="15">
         <v>33</v>
@@ -10852,11 +11134,11 @@
       </c>
       <c r="H12" s="10">
         <f>商店兑换!O15</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I12" s="10">
         <f>商店兑换!P15</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" s="10">
         <v>0</v>
@@ -10866,11 +11148,11 @@
       </c>
       <c r="M12" s="15" t="str">
         <f>副本产出!I6</f>
-        <v>prop,807,55</v>
+        <v>prop,807,63</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,55</v>
+        <v>prop,807,63</v>
       </c>
       <c r="P12" s="15" t="str">
         <f>副本产出!Q11</f>
@@ -10881,7 +11163,7 @@
         <v>prop,315,1</v>
       </c>
       <c r="S12" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U12" s="15">
         <v>14</v>
@@ -10936,19 +11218,19 @@
       </c>
       <c r="E13" s="10" t="str">
         <f>商店兑换!S16</f>
-        <v>prop,806,10;prop,807,25</v>
+        <v>prop,806,65;prop,807,50</v>
       </c>
       <c r="F13" s="10" t="str">
         <f>商店兑换!C16</f>
-        <v>prop,801,5</v>
+        <v>prop,805,5</v>
       </c>
       <c r="G13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>prop,801,5</v>
+        <v>prop,805,5</v>
       </c>
       <c r="H13" s="10">
         <f>商店兑换!O16</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I13" s="10">
         <f>商店兑换!P16</f>
@@ -10962,11 +11244,11 @@
       </c>
       <c r="M13" s="15" t="str">
         <f>副本产出!J2</f>
-        <v>prop,806,70</v>
+        <v>prop,806,67</v>
       </c>
       <c r="N13" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,70</v>
+        <v>prop,806,67</v>
       </c>
       <c r="P13" s="15" t="str">
         <f>副本产出!Q12</f>
@@ -10977,7 +11259,7 @@
         <v>prop,702,1</v>
       </c>
       <c r="S13" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U13" s="15">
         <v>24</v>
@@ -11032,15 +11314,15 @@
       </c>
       <c r="E14" s="10" t="str">
         <f>商店兑换!S17</f>
-        <v>prop,806,20;prop,807,5</v>
+        <v>prop,806,10;prop,807,25</v>
       </c>
       <c r="F14" s="10" t="str">
         <f>商店兑换!C17</f>
-        <v>prop,802,1</v>
+        <v>prop,801,5</v>
       </c>
       <c r="G14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>prop,802,1</v>
+        <v>prop,801,5</v>
       </c>
       <c r="H14" s="10">
         <f>商店兑换!O17</f>
@@ -11073,7 +11355,7 @@
         <v>prop,106,2</v>
       </c>
       <c r="S14" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U14" s="15">
         <v>34</v>
@@ -11128,19 +11410,19 @@
       </c>
       <c r="E15" s="10" t="str">
         <f>商店兑换!S18</f>
-        <v>prop,806,1</v>
+        <v>prop,806,20;prop,807,5</v>
       </c>
       <c r="F15" s="10" t="str">
         <f>商店兑换!C18</f>
-        <v>coin,100</v>
+        <v>prop,802,1</v>
       </c>
       <c r="G15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>coin,100</v>
+        <v>prop,802,1</v>
       </c>
       <c r="H15" s="10">
         <f>商店兑换!O18</f>
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15" s="10">
         <f>商店兑换!P18</f>
@@ -11154,11 +11436,11 @@
       </c>
       <c r="M15" s="15" t="str">
         <f>副本产出!J4</f>
-        <v>prop,806,90</v>
+        <v>prop,806,89</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,806,90</v>
+        <v>prop,806,89</v>
       </c>
       <c r="P15" s="15" t="str">
         <f>副本产出!Q14</f>
@@ -11169,7 +11451,7 @@
         <v>prop,403,3</v>
       </c>
       <c r="S15" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z15" s="15">
         <f t="shared" si="3"/>
@@ -11210,15 +11492,15 @@
       </c>
       <c r="E16" s="10" t="str">
         <f>商店兑换!S19</f>
-        <v>prop,807,1</v>
+        <v>prop,806,1</v>
       </c>
       <c r="F16" s="10" t="str">
         <f>商店兑换!C19</f>
-        <v>coin,120</v>
+        <v>coin,30</v>
       </c>
       <c r="G16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>coin,120</v>
+        <v>coin,30</v>
       </c>
       <c r="H16" s="10">
         <f>商店兑换!O19</f>
@@ -11236,11 +11518,11 @@
       </c>
       <c r="M16" s="15" t="str">
         <f>副本产出!J5</f>
-        <v>prop,807,40</v>
+        <v>prop,807,37</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,40</v>
+        <v>prop,807,37</v>
       </c>
       <c r="P16" s="15" t="str">
         <f>副本产出!Q15</f>
@@ -11251,7 +11533,7 @@
         <v>prop,318,1</v>
       </c>
       <c r="S16" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z16" s="15">
         <f t="shared" si="3"/>
@@ -11282,7 +11564,7 @@
         <v>10015</v>
       </c>
       <c r="B17" s="10">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
@@ -11290,21 +11572,25 @@
       <c r="D17" s="11">
         <v>999</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>66</v>
+      <c r="E17" s="10" t="str">
+        <f>商店兑换!S20</f>
+        <v>prop,807,1</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f>商店兑换!C20</f>
+        <v>coin,35</v>
+      </c>
+      <c r="G17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>coin,35</v>
       </c>
       <c r="H17" s="10">
+        <f>商店兑换!O20</f>
         <v>-1</v>
       </c>
       <c r="I17" s="10">
-        <f>商店兑换!P21</f>
-        <v>0</v>
+        <f>商店兑换!P20</f>
+        <v>15</v>
       </c>
       <c r="J17" s="10">
         <v>0</v>
@@ -11314,11 +11600,11 @@
       </c>
       <c r="M17" s="15" t="str">
         <f>副本产出!J6</f>
-        <v>prop,807,75</v>
+        <v>prop,807,74</v>
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>prop,807,75</v>
+        <v>prop,807,74</v>
       </c>
       <c r="P17" s="15" t="str">
         <f>副本产出!Q16</f>
@@ -11329,7 +11615,7 @@
         <v>prop,315,1</v>
       </c>
       <c r="S17" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z17" s="15">
         <f t="shared" si="3"/>
@@ -11360,7 +11646,7 @@
         <v>10016</v>
       </c>
       <c r="B18" s="10">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
@@ -11368,21 +11654,25 @@
       <c r="D18" s="11">
         <v>999</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>66</v>
+      <c r="E18" s="10" t="str">
+        <f>商店兑换!S21</f>
+        <v>prop,806,10</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f>商店兑换!C21</f>
+        <v>coin,300</v>
+      </c>
+      <c r="G18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>coin,300</v>
       </c>
       <c r="H18" s="10">
+        <f>商店兑换!O21</f>
         <v>-1</v>
       </c>
       <c r="I18" s="10">
-        <f>商店兑换!P22</f>
-        <v>0</v>
+        <f>商店兑换!P21</f>
+        <v>16</v>
       </c>
       <c r="J18" s="10">
         <v>0</v>
@@ -11415,6 +11705,44 @@
       </c>
     </row>
     <row r="19" spans="1:33">
+      <c r="A19" s="12">
+        <v>10017</v>
+      </c>
+      <c r="B19" s="15">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>999</v>
+      </c>
+      <c r="E19" s="10" t="str">
+        <f>商店兑换!S22</f>
+        <v>prop,807,10</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f>商店兑换!C22</f>
+        <v>coin,350</v>
+      </c>
+      <c r="G19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>coin,350</v>
+      </c>
+      <c r="H19" s="10">
+        <f>商店兑换!O22</f>
+        <v>-1</v>
+      </c>
+      <c r="I19" s="10">
+        <f>商店兑换!P22</f>
+        <v>17</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
       <c r="Z19" s="15">
         <f t="shared" si="3"/>
         <v>140171</v>
@@ -11986,7 +12314,7 @@
       </c>
       <c r="AG41" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>pack,306</v>
+        <v>pack,307</v>
       </c>
     </row>
     <row r="42" spans="26:33">
@@ -12486,7 +12814,7 @@
       </c>
       <c r="AG61" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="62" spans="26:33">
@@ -12511,7 +12839,7 @@
       </c>
       <c r="AG62" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="63" spans="26:33">
@@ -12536,7 +12864,7 @@
       </c>
       <c r="AG63" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="64" spans="26:33">
@@ -12561,7 +12889,7 @@
       </c>
       <c r="AG64" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="65" spans="26:33">
@@ -12586,7 +12914,7 @@
       </c>
       <c r="AG65" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="66" spans="26:33">
@@ -12611,7 +12939,7 @@
       </c>
       <c r="AG66" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="67" spans="26:33">
@@ -12636,7 +12964,7 @@
       </c>
       <c r="AG67" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="68" spans="26:33">
@@ -12661,7 +12989,7 @@
       </c>
       <c r="AG68" s="2" t="str">
         <f t="shared" ref="AG68:AG131" si="6">"pack,"&amp;VLOOKUP(IF(AA68&lt;$AJ$2,10,IF(AA68&lt;$AJ$3,20,30))+AB68,$U$3:$V$14,2,0)</f>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="69" spans="26:33">
@@ -12686,7 +13014,7 @@
       </c>
       <c r="AG69" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="70" spans="26:33">
@@ -12711,7 +13039,7 @@
       </c>
       <c r="AG70" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="71" spans="26:33">
@@ -12736,7 +13064,7 @@
       </c>
       <c r="AG71" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>pack,307</v>
+        <v>pack,308</v>
       </c>
     </row>
     <row r="72" spans="26:33">
@@ -14564,7 +14892,7 @@
       </c>
       <c r="AG141" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,309</v>
+        <v>pack,310</v>
       </c>
     </row>
     <row r="142" spans="26:33">
@@ -15104,7 +15432,7 @@
       </c>
       <c r="AG161" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="162" spans="26:33">
@@ -15131,7 +15459,7 @@
       </c>
       <c r="AG162" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="163" spans="26:33">
@@ -15158,7 +15486,7 @@
       </c>
       <c r="AG163" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="164" spans="26:33">
@@ -15185,7 +15513,7 @@
       </c>
       <c r="AG164" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="165" spans="26:33">
@@ -15212,7 +15540,7 @@
       </c>
       <c r="AG165" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="166" spans="26:33">
@@ -15239,7 +15567,7 @@
       </c>
       <c r="AG166" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="167" spans="26:33">
@@ -15266,7 +15594,7 @@
       </c>
       <c r="AG167" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="168" spans="26:33">
@@ -15293,7 +15621,7 @@
       </c>
       <c r="AG168" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="169" spans="26:33">
@@ -15320,7 +15648,7 @@
       </c>
       <c r="AG169" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="170" spans="26:33">
@@ -15347,7 +15675,7 @@
       </c>
       <c r="AG170" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="171" spans="26:33">
@@ -15374,7 +15702,7 @@
       </c>
       <c r="AG171" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>pack,310</v>
+        <v>pack,311</v>
       </c>
     </row>
     <row r="172" spans="26:33">
@@ -17264,7 +17592,7 @@
       </c>
       <c r="AG241" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>pack,312</v>
+        <v>pack,313</v>
       </c>
     </row>
     <row r="242" spans="26:33">
@@ -17804,7 +18132,7 @@
       </c>
       <c r="AG261" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="262" spans="26:33">
@@ -17831,7 +18159,7 @@
       </c>
       <c r="AG262" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="263" spans="26:33">
@@ -17858,7 +18186,7 @@
       </c>
       <c r="AG263" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="264" spans="26:33">
@@ -17885,7 +18213,7 @@
       </c>
       <c r="AG264" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="265" spans="26:33">
@@ -17912,7 +18240,7 @@
       </c>
       <c r="AG265" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="266" spans="26:33">
@@ -17939,7 +18267,7 @@
       </c>
       <c r="AG266" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="267" spans="26:33">
@@ -17966,7 +18294,7 @@
       </c>
       <c r="AG267" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="268" spans="26:33">
@@ -17993,7 +18321,7 @@
       </c>
       <c r="AG268" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="269" spans="26:33">
@@ -18020,7 +18348,7 @@
       </c>
       <c r="AG269" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="270" spans="26:33">
@@ -18047,7 +18375,7 @@
       </c>
       <c r="AG270" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="271" spans="26:33">
@@ -18074,7 +18402,7 @@
       </c>
       <c r="AG271" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>pack,313</v>
+        <v>pack,314</v>
       </c>
     </row>
     <row r="272" spans="26:33">
@@ -19964,7 +20292,7 @@
       </c>
       <c r="AG341" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,315</v>
+        <v>pack,316</v>
       </c>
     </row>
     <row r="342" spans="26:33">
@@ -20504,7 +20832,7 @@
       </c>
       <c r="AG361" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="362" spans="26:33">
@@ -20531,7 +20859,7 @@
       </c>
       <c r="AG362" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="363" spans="26:33">
@@ -20558,7 +20886,7 @@
       </c>
       <c r="AG363" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="364" spans="26:33">
@@ -20585,7 +20913,7 @@
       </c>
       <c r="AG364" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="365" spans="26:33">
@@ -20612,7 +20940,7 @@
       </c>
       <c r="AG365" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="366" spans="26:33">
@@ -20639,7 +20967,7 @@
       </c>
       <c r="AG366" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="367" spans="26:33">
@@ -20666,7 +20994,7 @@
       </c>
       <c r="AG367" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="368" spans="26:33">
@@ -20693,7 +21021,7 @@
       </c>
       <c r="AG368" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="369" spans="26:33">
@@ -20720,7 +21048,7 @@
       </c>
       <c r="AG369" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="370" spans="26:33">
@@ -20747,7 +21075,7 @@
       </c>
       <c r="AG370" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="371" spans="26:33">
@@ -20774,7 +21102,7 @@
       </c>
       <c r="AG371" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>pack,316</v>
+        <v>pack,317</v>
       </c>
     </row>
     <row r="372" spans="26:33">
@@ -21626,7 +21954,7 @@
   <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/OPM经济数值/活动副本.xlsx
+++ b/OPM经济数值/活动副本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456292B0-E56A-4229-9489-1368A1870CB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A546296-FA0E-4973-AAD1-6F4AF3452AD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="152">
   <si>
     <t>类型</t>
     <rPh sb="0" eb="1">
@@ -725,6 +725,10 @@
     <t>现金虚价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>额外价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5493,7 +5497,7 @@
   <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5502,8 +5506,8 @@
     <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9.75" style="4" customWidth="1"/>
@@ -6108,6 +6112,13 @@
         <v>177.44444444444446</v>
       </c>
       <c r="C15" s="4"/>
+      <c r="E15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="1">
+        <f>(B15-50)*B16*B17</f>
+        <v>22940.000000000004</v>
+      </c>
       <c r="M15" s="4">
         <f>M10+10</f>
         <v>1024</v>
@@ -10097,7 +10108,7 @@
   <dimension ref="A1:AJ402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
